--- a/Simple_XLS_Importer/data/FAO-LandAndGender/FAO-LandAndGender.3Fa.xlsx
+++ b/Simple_XLS_Importer/data/FAO-LandAndGender/FAO-LandAndGender.3Fa.xlsx
@@ -185,10 +185,10 @@
     </r>
   </si>
   <si>
-    <t>LandAndGender</t>
-  </si>
-  <si>
-    <t>LandAndGender.3Fa</t>
+    <t>LG</t>
+  </si>
+  <si>
+    <t>LG.3Fa</t>
   </si>
 </sst>
 </file>
